--- a/src/test/java/SignIn/SignInDataFile.xlsx
+++ b/src/test/java/SignIn/SignInDataFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3abod\IdeaProjects\Web_Automation_With_Selenium\src\test\java\SignIn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0441DF-CE5C-45AB-898A-85CD7A4E8772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CDC834-CF93-4CBF-BF40-9ADFDE17BFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Email</t>
   </si>
@@ -44,6 +44,18 @@
   </si>
   <si>
     <t>lastname</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -415,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -457,6 +469,34 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/SignIn/SignInDataFile.xlsx
+++ b/src/test/java/SignIn/SignInDataFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3abod\IdeaProjects\Web_Automation_With_Selenium\src\test\java\SignIn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CDC834-CF93-4CBF-BF40-9ADFDE17BFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C3E490-F347-49F6-AC5F-C6C61CAFB1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="338" windowWidth="21600" windowHeight="11422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Email</t>
   </si>
@@ -44,18 +44,6 @@
   </si>
   <si>
     <t>lastname</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>d</t>
   </si>
 </sst>
 </file>
@@ -427,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D4" sqref="A3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -469,34 +457,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
